--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0629BE1-E4A7-4138-961F-DD2C2339CEB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482D2D7-D72A-45EC-BCD0-FDA62A117B93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-2100" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
   <si>
     <t>setting_name</t>
   </si>
@@ -275,9 +275,6 @@
     <t>display.prompt.text.english</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>assign</t>
   </si>
   <si>
@@ -297,6 +294,24 @@
   </si>
   <si>
     <t>Socioeconomic status</t>
+  </si>
+  <si>
+    <t>REGID</t>
+  </si>
+  <si>
+    <t>PREGID</t>
+  </si>
+  <si>
+    <t>VISITID</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>REGIDC</t>
+  </si>
+  <si>
+    <t>VISITIDC</t>
   </si>
 </sst>
 </file>
@@ -672,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -712,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -728,7 +743,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -736,10 +751,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +972,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>72</v>
@@ -968,10 +983,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1266,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1319,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -1359,7 +1374,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1370,7 +1385,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1381,12 +1396,56 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482D2D7-D72A-45EC-BCD0-FDA62A117B93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675F69A-18CD-4E27-8A1B-342A8695ECF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>setting_name</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>PREGID</t>
-  </si>
-  <si>
-    <t>VISITID</t>
   </si>
   <si>
     <t>text</t>
@@ -1281,11 +1278,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1385,7 @@
         <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1410,7 +1407,7 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1418,10 +1415,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
         <v>90</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1432,20 +1429,9 @@
         <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" t="b">
         <v>0</v>
       </c>
     </row>

--- a/app/config/tables/SES/forms/SES/SES.xlsx
+++ b/app/config/tables/SES/forms/SES/SES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C675F69A-18CD-4E27-8A1B-342A8695ECF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8C8C8-F50D-4AEA-929C-165682B217F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="95">
   <si>
     <t>setting_name</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>VISITIDC</t>
+  </si>
+  <si>
+    <t>adate</t>
+  </si>
+  <si>
+    <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
 </sst>
 </file>
@@ -1011,11 +1017,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,6 +1058,20 @@
       </c>
       <c r="D2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1302,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,7 +1416,7 @@
         <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
